--- a/src/test/resources/massa.xlsx
+++ b/src/test/resources/massa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>rafael05</t>
+    <t>Rafa123</t>
   </si>
   <si>
-    <t>Rafa123</t>
+    <t>uInvalido</t>
+  </si>
+  <si>
+    <t>sInvalida</t>
+  </si>
+  <si>
+    <t>rafael14</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,22 +387,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
